--- a/output/2017-10-01 to 2017-11-01.xlsx
+++ b/output/2017-10-01 to 2017-11-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-08-101-01</t>
   </si>
   <si>
@@ -135,6 +138,24 @@
   </si>
   <si>
     <t>2017-01-102-01</t>
+  </si>
+  <si>
+    <t>['Chenghao DUAN', 'Arun Lakshmanan']</t>
+  </si>
+  <si>
+    <t>['Sierra Young', 'Karun Koppula']</t>
+  </si>
+  <si>
+    <t>['Berk Cagilci', 'Olivas Hernandez, Daniel', 'Daniel Olivas Hernandez']</t>
+  </si>
+  <si>
+    <t>['Jiyang Chen']</t>
+  </si>
+  <si>
+    <t>['Alexander Hill']</t>
+  </si>
+  <si>
+    <t>['Kyle Pieper']</t>
   </si>
   <si>
     <t>cfop_NH</t>
@@ -911,13 +932,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
@@ -927,13 +948,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>13.5</v>
@@ -941,13 +965,16 @@
       <c r="D2">
         <v>47.36842105263158</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -955,13 +982,16 @@
       <c r="D3">
         <v>21.05263157894737</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -969,13 +999,16 @@
       <c r="D4">
         <v>14.03508771929824</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -983,13 +1016,16 @@
       <c r="D5">
         <v>7.017543859649122</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -997,19 +1033,25 @@
       <c r="D6">
         <v>7.017543859649122</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
         <v>3.508771929824561</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>13.5</v>
@@ -1055,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -1069,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -1083,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1097,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1111,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1</v>
